--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,10 +40,13 @@
     <t>name</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>terrifying</t>
+    <t>evil</t>
   </si>
   <si>
     <t>worst</t>
@@ -52,13 +55,16 @@
     <t>uncomfortable</t>
   </si>
   <si>
+    <t>fucking</t>
+  </si>
+  <si>
     <t>dangerous</t>
   </si>
   <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>fucking</t>
+    <t>hate</t>
   </si>
   <si>
     <t>addicted</t>
@@ -67,24 +73,27 @@
     <t>shit</t>
   </si>
   <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
     <t>dark</t>
   </si>
   <si>
-    <t>behind</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
+    <t>[UNK]</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -97,30 +106,33 @@
     <t>great</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>powerful</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
+    <t>first</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
     <t>wow</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
@@ -130,16 +142,13 @@
     <t>really</t>
   </si>
   <si>
+    <t>media</t>
+  </si>
+  <si>
     <t>netflix</t>
   </si>
   <si>
-    <t>watch</t>
-  </si>
-  <si>
     <t>’</t>
-  </si>
-  <si>
-    <t>media</t>
   </si>
   <si>
     <t>…</t>
@@ -511,10 +520,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -572,13 +581,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9326923076923077</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C3">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="D3">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -590,10 +599,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -622,13 +631,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9242424242424242</v>
+        <v>0.9519230769230769</v>
       </c>
       <c r="C4">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="D4">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -643,7 +652,7 @@
         <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K4">
         <v>0.9</v>
@@ -672,13 +681,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8666666666666667</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C5">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -690,19 +699,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K5">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -714,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -722,13 +731,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -743,16 +752,16 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K6">
-        <v>0.7368421052631579</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L6">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="M6">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -764,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -772,13 +781,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7894736842105263</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -790,19 +799,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K7">
-        <v>0.7241379310344828</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L7">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -814,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -822,13 +831,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7647058823529411</v>
+        <v>0.75</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -843,16 +852,16 @@
         <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K8">
-        <v>0.68</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -864,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -872,13 +881,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.75</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -890,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K9">
-        <v>0.6666666666666666</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L9">
         <v>12</v>
@@ -914,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -922,13 +931,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -940,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K10">
-        <v>0.6</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L10">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M10">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -964,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -972,13 +981,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6382978723404256</v>
+        <v>0.65</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -990,31 +999,31 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K11">
-        <v>0.5555555555555556</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L11">
+        <v>18</v>
+      </c>
+      <c r="M11">
+        <v>18</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>15</v>
-      </c>
-      <c r="M11">
-        <v>15</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1022,31 +1031,31 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6086956521739131</v>
+        <v>0.65</v>
       </c>
       <c r="C12">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>14</v>
       </c>
-      <c r="D12">
-        <v>14</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>9</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K12">
-        <v>0.4242424242424243</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L12">
         <v>14</v>
@@ -1064,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1072,13 +1081,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5507246376811594</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="C13">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1090,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K13">
-        <v>0.3958333333333333</v>
+        <v>0.4375</v>
       </c>
       <c r="L13">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M13">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1114,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1122,13 +1131,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5142857142857142</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1140,19 +1149,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K14">
-        <v>0.23224043715847</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="L14">
-        <v>255</v>
+        <v>14</v>
       </c>
       <c r="M14">
-        <v>255</v>
+        <v>14</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1164,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>843</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1172,13 +1181,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4642857142857143</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1190,19 +1199,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K15">
-        <v>0.2033898305084746</v>
+        <v>0.2404371584699453</v>
       </c>
       <c r="L15">
-        <v>12</v>
+        <v>264</v>
       </c>
       <c r="M15">
-        <v>12</v>
+        <v>264</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1214,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>47</v>
+        <v>834</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1222,37 +1231,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4615384615384616</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>12</v>
       </c>
-      <c r="D16">
-        <v>12</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>14</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K16">
-        <v>0.1473684210526316</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="L16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1264,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>81</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1272,141 +1281,213 @@
         <v>22</v>
       </c>
       <c r="B17">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>11</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17">
+        <v>0.1473684210526316</v>
+      </c>
+      <c r="L17">
+        <v>14</v>
+      </c>
+      <c r="M17">
+        <v>14</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>16</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18">
+        <v>0.0286144578313253</v>
+      </c>
+      <c r="L18">
+        <v>19</v>
+      </c>
+      <c r="M18">
+        <v>19</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
         <v>0.3333333333333333</v>
       </c>
-      <c r="C17">
+      <c r="C19">
         <v>13</v>
       </c>
-      <c r="D17">
+      <c r="D19">
         <v>13</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>26</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="L17">
+      <c r="J19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19">
+        <v>0.02592592592592593</v>
+      </c>
+      <c r="L19">
+        <v>14</v>
+      </c>
+      <c r="M19">
+        <v>14</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0.04026845637583892</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>0.08</v>
+      </c>
+      <c r="F20">
+        <v>0.92</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>286</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20">
+        <v>0.02304737516005122</v>
+      </c>
+      <c r="L20">
         <v>18</v>
       </c>
-      <c r="M17">
+      <c r="M20">
         <v>18</v>
       </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="J18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18">
-        <v>0.01948051948051948</v>
-      </c>
-      <c r="L18">
-        <v>12</v>
-      </c>
-      <c r="M18">
-        <v>12</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="J19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19">
-        <v>0.01920614596670935</v>
-      </c>
-      <c r="L19">
-        <v>15</v>
-      </c>
-      <c r="M19">
-        <v>15</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20">
-        <v>0.01809954751131222</v>
-      </c>
-      <c r="L20">
-        <v>12</v>
-      </c>
-      <c r="M20">
-        <v>13</v>
-      </c>
       <c r="N20">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>651</v>
+        <v>763</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K21">
-        <v>0.01670506912442396</v>
+        <v>0.01497695852534562</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1418,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1707</v>
+        <v>1710</v>
       </c>
     </row>
   </sheetData>
